--- a/GenerateApp/tables_long_horiz/Data/4/source.xlsx
+++ b/GenerateApp/tables_long_horiz/Data/4/source.xlsx
@@ -69,113 +69,101 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="808080"/>
+              <a:srgbClr val="800000"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$15</c:f>
+              <c:f>Sheet1!$A$1:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2003</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2005</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2006</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2007</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2008</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2009</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2010</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2011</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2012</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2015</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$15</c:f>
+              <c:f>Sheet1!$B$1:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>796</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>791</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>592</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>366</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>616</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>753</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>617</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>490</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -197,7 +185,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -250,10 +240,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -560,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,122 +558,106 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>796</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2002</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>791</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2003</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>502</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>569</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2005</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2006</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>827</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2007</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>592</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2008</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>366</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2009</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2010</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>568</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2011</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>753</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2012</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2013</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2014</v>
-      </c>
-      <c r="B14">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2015</v>
-      </c>
-      <c r="B15">
-        <v>490</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
